--- a/xls/square_high_un_16_tri3_11.xlsx
+++ b/xls/square_high_un_16_tri3_11.xlsx
@@ -476,22 +476,22 @@
         <v>12</v>
       </c>
       <c r="F11">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="G11" t="s">
         <v>13</v>
       </c>
       <c r="H11">
-        <v>726</v>
+        <v>906</v>
       </c>
       <c r="I11">
-        <v>-1.4044100059271776</v>
+        <v>-1.9789060729056496</v>
       </c>
       <c r="J11">
-        <v>-1.5578508897155519</v>
+        <v>-1.8621459309222685</v>
       </c>
       <c r="K11">
-        <v>-0.6486023403446523</v>
+        <v>-0.8584237589468542</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -511,22 +511,22 @@
         <v>12</v>
       </c>
       <c r="F12">
-        <v>169</v>
+        <v>209</v>
       </c>
       <c r="G12" t="s">
         <v>13</v>
       </c>
       <c r="H12">
-        <v>864</v>
+        <v>1104</v>
       </c>
       <c r="I12">
-        <v>-1.9041197287181688</v>
+        <v>-1.7599498826052364</v>
       </c>
       <c r="J12">
-        <v>-1.7899396912320147</v>
+        <v>-1.4286731465679712</v>
       </c>
       <c r="K12">
-        <v>-0.8455682481411667</v>
+        <v>-0.23427106588244379</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -546,22 +546,22 @@
         <v>12</v>
       </c>
       <c r="F13">
-        <v>196</v>
+        <v>238</v>
       </c>
       <c r="G13" t="s">
         <v>13</v>
       </c>
       <c r="H13">
-        <v>1014</v>
+        <v>1266</v>
       </c>
       <c r="I13">
-        <v>-2.0864538386195646</v>
+        <v>-1.7039570808383115</v>
       </c>
       <c r="J13">
-        <v>-1.7110285916967594</v>
+        <v>-1.4139214952280241</v>
       </c>
       <c r="K13">
-        <v>-0.5799860222619366</v>
+        <v>-0.08926304235849859</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -581,22 +581,22 @@
         <v>12</v>
       </c>
       <c r="F14">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="G14" t="s">
         <v>13</v>
       </c>
       <c r="H14">
-        <v>1176</v>
+        <v>1362</v>
       </c>
       <c r="I14">
-        <v>-1.900083199232734</v>
+        <v>-1.6093770814075663</v>
       </c>
       <c r="J14">
-        <v>-1.5308604742838556</v>
+        <v>-1.34682877727142</v>
       </c>
       <c r="K14">
-        <v>-0.2318233236521175</v>
+        <v>-0.024399221294817454</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -616,22 +616,22 @@
         <v>12</v>
       </c>
       <c r="F15">
-        <v>256</v>
+        <v>297</v>
       </c>
       <c r="G15" t="s">
         <v>13</v>
       </c>
       <c r="H15">
-        <v>1350</v>
+        <v>1596</v>
       </c>
       <c r="I15">
-        <v>-1.5279477236303751</v>
+        <v>-1.3951519626274547</v>
       </c>
       <c r="J15">
-        <v>-1.2889072078352903</v>
+        <v>-1.2367986501011603</v>
       </c>
       <c r="K15">
-        <v>0.1655452931952888</v>
+        <v>0.2076846938674345</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -651,22 +651,22 @@
         <v>12</v>
       </c>
       <c r="F16">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="G16" t="s">
         <v>13</v>
       </c>
       <c r="H16">
-        <v>1536</v>
+        <v>1842</v>
       </c>
       <c r="I16">
-        <v>-1.1781658683592706</v>
+        <v>-1.3059845906368288</v>
       </c>
       <c r="J16">
-        <v>-1.050851102426202</v>
+        <v>-1.139825384257578</v>
       </c>
       <c r="K16">
-        <v>0.4474344584255577</v>
+        <v>0.10439973258171995</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -686,22 +686,22 @@
         <v>12</v>
       </c>
       <c r="F17">
-        <v>324</v>
+        <v>380</v>
       </c>
       <c r="G17" t="s">
         <v>13</v>
       </c>
       <c r="H17">
-        <v>1734</v>
+        <v>2070</v>
       </c>
       <c r="I17">
-        <v>-0.8153976584723068</v>
+        <v>-0.19507122707636684</v>
       </c>
       <c r="J17">
-        <v>-0.7394160639877743</v>
+        <v>-0.18787674225814407</v>
       </c>
       <c r="K17">
-        <v>0.8888418074625206</v>
+        <v>1.8354915923480108</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -721,22 +721,22 @@
         <v>12</v>
       </c>
       <c r="F18">
-        <v>361</v>
+        <v>435</v>
       </c>
       <c r="G18" t="s">
         <v>13</v>
       </c>
       <c r="H18">
-        <v>1944</v>
+        <v>2388</v>
       </c>
       <c r="I18">
-        <v>-0.45153660666136175</v>
+        <v>-3.1168530694070046e-5</v>
       </c>
       <c r="J18">
-        <v>-0.3978720868869657</v>
+        <v>-3.174257308888078e-5</v>
       </c>
       <c r="K18">
-        <v>1.4403922291138371</v>
+        <v>2.1864718196372377</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -756,22 +756,22 @@
         <v>12</v>
       </c>
       <c r="F19">
-        <v>400</v>
+        <v>485</v>
       </c>
       <c r="G19" t="s">
         <v>13</v>
       </c>
       <c r="H19">
-        <v>2166</v>
+        <v>2676</v>
       </c>
       <c r="I19">
-        <v>-0.10114358071115066</v>
+        <v>-2.2910731639667925e-6</v>
       </c>
       <c r="J19">
-        <v>-0.08750524728433969</v>
+        <v>-2.7984131194520026e-6</v>
       </c>
       <c r="K19">
-        <v>2.1090503854702796</v>
+        <v>1.7220863484534625</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -791,22 +791,22 @@
         <v>12</v>
       </c>
       <c r="F20">
-        <v>441</v>
+        <v>564</v>
       </c>
       <c r="G20" t="s">
         <v>13</v>
       </c>
       <c r="H20">
-        <v>2400</v>
+        <v>3138</v>
       </c>
       <c r="I20">
-        <v>1.3070945181800747e-5</v>
+        <v>-4.977509485210226e-7</v>
       </c>
       <c r="J20">
-        <v>-4.839460490236918e-6</v>
+        <v>-7.195997897912576e-7</v>
       </c>
       <c r="K20">
-        <v>2.1408068397199096</v>
+        <v>1.4491220117726586</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -826,22 +826,22 @@
         <v>12</v>
       </c>
       <c r="F21">
-        <v>484</v>
+        <v>598</v>
       </c>
       <c r="G21" t="s">
         <v>13</v>
       </c>
       <c r="H21">
-        <v>2646</v>
+        <v>3330</v>
       </c>
       <c r="I21">
-        <v>-2.273968432942169e-6</v>
+        <v>-4.306405448614168e-7</v>
       </c>
       <c r="J21">
-        <v>-3.342737593573998e-6</v>
+        <v>-6.449932095583217e-7</v>
       </c>
       <c r="K21">
-        <v>1.7858700694971292</v>
+        <v>1.4384755155162627</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -861,22 +861,22 @@
         <v>12</v>
       </c>
       <c r="F22">
-        <v>529</v>
+        <v>668</v>
       </c>
       <c r="G22" t="s">
         <v>13</v>
       </c>
       <c r="H22">
-        <v>2904</v>
+        <v>3738</v>
       </c>
       <c r="I22">
-        <v>-6.854546675913099e-7</v>
+        <v>-5.310476806521755e-7</v>
       </c>
       <c r="J22">
-        <v>-1.4451906461003597e-6</v>
+        <v>-5.82480734423345e-7</v>
       </c>
       <c r="K22">
-        <v>1.641874499378367</v>
+        <v>1.3603545669938761</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -896,22 +896,22 @@
         <v>12</v>
       </c>
       <c r="F23">
-        <v>576</v>
+        <v>741</v>
       </c>
       <c r="G23" t="s">
         <v>13</v>
       </c>
       <c r="H23">
-        <v>3174</v>
+        <v>4164</v>
       </c>
       <c r="I23">
-        <v>-6.430437507087331e-7</v>
+        <v>-4.942405983663613e-7</v>
       </c>
       <c r="J23">
-        <v>-1.0121074331147499e-6</v>
+        <v>-5.250367056810171e-7</v>
       </c>
       <c r="K23">
-        <v>1.5446384502538737</v>
+        <v>1.331099018428806</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -931,22 +931,22 @@
         <v>12</v>
       </c>
       <c r="F24">
-        <v>625</v>
+        <v>797</v>
       </c>
       <c r="G24" t="s">
         <v>13</v>
       </c>
       <c r="H24">
-        <v>3456</v>
+        <v>4488</v>
       </c>
       <c r="I24">
-        <v>-7.235891045866566e-7</v>
+        <v>-4.749890114249319e-7</v>
       </c>
       <c r="J24">
-        <v>-9.725737453230623e-7</v>
+        <v>-4.805295677775823e-7</v>
       </c>
       <c r="K24">
-        <v>1.515096753230424</v>
+        <v>1.2987793278762771</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -966,22 +966,22 @@
         <v>12</v>
       </c>
       <c r="F25">
-        <v>676</v>
+        <v>861</v>
       </c>
       <c r="G25" t="s">
         <v>13</v>
       </c>
       <c r="H25">
-        <v>3750</v>
+        <v>4860</v>
       </c>
       <c r="I25">
-        <v>-5.368544622470898e-7</v>
+        <v>-4.4399429654795833e-7</v>
       </c>
       <c r="J25">
-        <v>-7.226516974606241e-7</v>
+        <v>-4.5927207746360556e-7</v>
       </c>
       <c r="K25">
-        <v>1.4465725242244798</v>
+        <v>1.295175711797746</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1001,22 +1001,22 @@
         <v>12</v>
       </c>
       <c r="F26">
-        <v>729</v>
+        <v>927</v>
       </c>
       <c r="G26" t="s">
         <v>13</v>
       </c>
       <c r="H26">
-        <v>4056</v>
+        <v>5244</v>
       </c>
       <c r="I26">
-        <v>-5.448354669374797e-7</v>
+        <v>-3.872014230774836e-7</v>
       </c>
       <c r="J26">
-        <v>-6.613337535078047e-7</v>
+        <v>-4.150632685672858e-7</v>
       </c>
       <c r="K26">
-        <v>1.409708047399732</v>
+        <v>1.2823681731726255</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1036,22 +1036,22 @@
         <v>12</v>
       </c>
       <c r="F27">
-        <v>784</v>
+        <v>977</v>
       </c>
       <c r="G27" t="s">
         <v>13</v>
       </c>
       <c r="H27">
-        <v>4374</v>
+        <v>5532</v>
       </c>
       <c r="I27">
-        <v>-5.380637483231839e-7</v>
+        <v>-4.1384789690902735e-7</v>
       </c>
       <c r="J27">
-        <v>-5.976724338560585e-7</v>
+        <v>-4.244789092863025e-7</v>
       </c>
       <c r="K27">
-        <v>1.3700977543170236</v>
+        <v>1.2751439896386811</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1071,22 +1071,22 @@
         <v>12</v>
       </c>
       <c r="F28">
-        <v>841</v>
+        <v>1034</v>
       </c>
       <c r="G28" t="s">
         <v>13</v>
       </c>
       <c r="H28">
-        <v>4704</v>
+        <v>5862</v>
       </c>
       <c r="I28">
-        <v>-4.874394959071525e-7</v>
+        <v>-4.053716186622401e-7</v>
       </c>
       <c r="J28">
-        <v>-5.397086826541718e-7</v>
+        <v>-4.1246552590250636e-7</v>
       </c>
       <c r="K28">
-        <v>1.3467448916033988</v>
+        <v>1.2669237731228034</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1106,22 +1106,22 @@
         <v>12</v>
       </c>
       <c r="F29">
-        <v>900</v>
+        <v>1085</v>
       </c>
       <c r="G29" t="s">
         <v>13</v>
       </c>
       <c r="H29">
-        <v>5046</v>
+        <v>6156</v>
       </c>
       <c r="I29">
-        <v>-4.576488141644579e-7</v>
+        <v>-4.365307563992671e-7</v>
       </c>
       <c r="J29">
-        <v>-5.138364454950868e-7</v>
+        <v>-4.3392825657393374e-7</v>
       </c>
       <c r="K29">
-        <v>1.338397118144623</v>
+        <v>1.2715324723599821</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1141,22 +1141,22 @@
         <v>12</v>
       </c>
       <c r="F30">
-        <v>961</v>
+        <v>1177</v>
       </c>
       <c r="G30" t="s">
         <v>13</v>
       </c>
       <c r="H30">
-        <v>5400</v>
+        <v>6696</v>
       </c>
       <c r="I30">
-        <v>-4.0872503498652855e-7</v>
+        <v>-3.9430442397473273e-7</v>
       </c>
       <c r="J30">
-        <v>-4.6503240128408967e-7</v>
+        <v>-3.972258657615929e-7</v>
       </c>
       <c r="K30">
-        <v>1.320055047802527</v>
+        <v>1.2558223238500092</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1176,22 +1176,22 @@
         <v>12</v>
       </c>
       <c r="F31">
-        <v>1024</v>
+        <v>1243</v>
       </c>
       <c r="G31" t="s">
         <v>13</v>
       </c>
       <c r="H31">
-        <v>5766</v>
+        <v>7080</v>
       </c>
       <c r="I31">
-        <v>-4.1368005786795496e-7</v>
+        <v>-3.942554767413972e-7</v>
       </c>
       <c r="J31">
-        <v>-4.5904580241312093e-7</v>
+        <v>-3.895900466529062e-7</v>
       </c>
       <c r="K31">
-        <v>1.3116839487745682</v>
+        <v>1.2461889112157996</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1211,22 +1211,22 @@
         <v>12</v>
       </c>
       <c r="F32">
-        <v>1089</v>
+        <v>1325</v>
       </c>
       <c r="G32" t="s">
         <v>13</v>
       </c>
       <c r="H32">
-        <v>6144</v>
+        <v>7560</v>
       </c>
       <c r="I32">
-        <v>-3.823479058412923e-7</v>
+        <v>-3.724718179832163e-7</v>
       </c>
       <c r="J32">
-        <v>-4.1607511115212056e-7</v>
+        <v>-3.7770574521915636e-7</v>
       </c>
       <c r="K32">
-        <v>1.2855998136540552</v>
+        <v>1.246646419738061</v>
       </c>
     </row>
   </sheetData>
